--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8065B9-DCA6-4D28-96C9-1E27944846FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772CDA6A-EB48-4CFB-9E5D-DD7F2C567323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,9 +2303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5729,6 +5731,23 @@
         <v>647</v>
       </c>
     </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>33</v>
+      </c>
+      <c r="C172">
+        <v>33</v>
+      </c>
+      <c r="D172">
+        <v>33</v>
+      </c>
+      <c r="E172">
+        <v>33</v>
+      </c>
+      <c r="F172">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772CDA6A-EB48-4CFB-9E5D-DD7F2C567323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7128DC1-E2A2-4829-8CA1-2BD188F7485C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="692">
   <si>
     <t>List No.</t>
   </si>
@@ -1964,14 +1964,154 @@
   </si>
   <si>
     <t>程度（ていど）</t>
+  </si>
+  <si>
+    <t>誠</t>
+  </si>
+  <si>
+    <t>まこと</t>
+  </si>
+  <si>
+    <t>誠にありがとうございます。</t>
+  </si>
+  <si>
+    <t>セイ</t>
+  </si>
+  <si>
+    <t>誠意（せいい）</t>
+  </si>
+  <si>
+    <t>澄</t>
+  </si>
+  <si>
+    <t>すます／すむ</t>
+  </si>
+  <si>
+    <t>耳を澄ます（みみをすます）／澄み切る</t>
+  </si>
+  <si>
+    <t>清澄（せいちょう）</t>
+  </si>
+  <si>
+    <t>懲</t>
+  </si>
+  <si>
+    <t>こらしめる／こらす／こりる</t>
+  </si>
+  <si>
+    <t>懲らしめる／懲らす／懲りる</t>
+  </si>
+  <si>
+    <t>懲戒（ちょうかい）</t>
+  </si>
+  <si>
+    <t>痴</t>
+  </si>
+  <si>
+    <t>チ</t>
+  </si>
+  <si>
+    <t>痴情（ちじょう）</t>
+  </si>
+  <si>
+    <t>喫</t>
+  </si>
+  <si>
+    <t>キツ</t>
+  </si>
+  <si>
+    <t>喫煙（きつえん）／喫する（きっする）</t>
+  </si>
+  <si>
+    <t>池</t>
+  </si>
+  <si>
+    <t>いけ</t>
+  </si>
+  <si>
+    <t>池（いけ）</t>
+  </si>
+  <si>
+    <t>電池（でんち）</t>
+  </si>
+  <si>
+    <t>持</t>
+  </si>
+  <si>
+    <t>もつ</t>
+  </si>
+  <si>
+    <t>持ち帰る（もちかえる）／気持ち</t>
+  </si>
+  <si>
+    <t>ジ</t>
+  </si>
+  <si>
+    <t>持続（じぞく）／持病（じびょう）</t>
+  </si>
+  <si>
+    <t>遅</t>
+  </si>
+  <si>
+    <t>おくらす／おくれる／おそい</t>
+  </si>
+  <si>
+    <t>遅らす（遅らせる）／遅れる／遅い</t>
+  </si>
+  <si>
+    <t>遅延（ちえん）</t>
+  </si>
+  <si>
+    <t>尺</t>
+  </si>
+  <si>
+    <t>シャク</t>
+  </si>
+  <si>
+    <t>尺度（しゃくど）／尺八（しゃくはち）</t>
+  </si>
+  <si>
+    <t>恥</t>
+  </si>
+  <si>
+    <t>はじ／はじらう／はじる／はずかしい</t>
+  </si>
+  <si>
+    <t>恥をかく／花も恥じらう美しい乙女／恥じる／恥ずかしい</t>
+  </si>
+  <si>
+    <t>恥辱（ちじょく）</t>
+  </si>
+  <si>
+    <t>歯</t>
+  </si>
+  <si>
+    <t>は</t>
+  </si>
+  <si>
+    <t>目には目を、歯には歯を／歯痒い（はがゆい）／歯切れ</t>
+  </si>
+  <si>
+    <t>シ</t>
+  </si>
+  <si>
+    <t>歯石（しせき）／歯痛（しつう）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1999,8 +2139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2303,13 +2445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -5732,23 +5882,230 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B172">
-        <v>33</v>
-      </c>
-      <c r="C172">
-        <v>33</v>
-      </c>
-      <c r="D172">
-        <v>33</v>
-      </c>
-      <c r="E172">
-        <v>33</v>
-      </c>
-      <c r="F172">
-        <v>33</v>
-      </c>
+      <c r="A172" t="s">
+        <v>628</v>
+      </c>
+      <c r="B172" t="s">
+        <v>648</v>
+      </c>
+      <c r="C172" t="s">
+        <v>649</v>
+      </c>
+      <c r="D172" t="s">
+        <v>650</v>
+      </c>
+      <c r="E172" t="s">
+        <v>651</v>
+      </c>
+      <c r="F172" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>628</v>
+      </c>
+      <c r="B173" t="s">
+        <v>653</v>
+      </c>
+      <c r="C173" t="s">
+        <v>654</v>
+      </c>
+      <c r="D173" t="s">
+        <v>655</v>
+      </c>
+      <c r="E173" t="s">
+        <v>556</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>628</v>
+      </c>
+      <c r="B174" t="s">
+        <v>657</v>
+      </c>
+      <c r="C174" t="s">
+        <v>658</v>
+      </c>
+      <c r="D174" t="s">
+        <v>659</v>
+      </c>
+      <c r="E174" t="s">
+        <v>556</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>628</v>
+      </c>
+      <c r="B175" t="s">
+        <v>661</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>662</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>628</v>
+      </c>
+      <c r="B176" t="s">
+        <v>664</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>665</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>628</v>
+      </c>
+      <c r="B177" t="s">
+        <v>667</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D177" t="s">
+        <v>669</v>
+      </c>
+      <c r="E177" t="s">
+        <v>662</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>628</v>
+      </c>
+      <c r="B178" t="s">
+        <v>671</v>
+      </c>
+      <c r="C178" t="s">
+        <v>672</v>
+      </c>
+      <c r="D178" t="s">
+        <v>673</v>
+      </c>
+      <c r="E178" t="s">
+        <v>674</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>628</v>
+      </c>
+      <c r="B179" t="s">
+        <v>676</v>
+      </c>
+      <c r="C179" t="s">
+        <v>677</v>
+      </c>
+      <c r="D179" t="s">
+        <v>678</v>
+      </c>
+      <c r="E179" t="s">
+        <v>662</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>628</v>
+      </c>
+      <c r="B180" t="s">
+        <v>680</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>681</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>628</v>
+      </c>
+      <c r="B181" t="s">
+        <v>683</v>
+      </c>
+      <c r="C181" t="s">
+        <v>684</v>
+      </c>
+      <c r="D181" t="s">
+        <v>685</v>
+      </c>
+      <c r="E181" t="s">
+        <v>662</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>628</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C182" t="s">
+        <v>688</v>
+      </c>
+      <c r="D182" t="s">
+        <v>689</v>
+      </c>
+      <c r="E182" t="s">
+        <v>690</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C192" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JLR_Contents.xlsx
+++ b/JLR_Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\PycharmProjects\JLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7128DC1-E2A2-4829-8CA1-2BD188F7485C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A0C4C-6160-44AA-83A7-3D2613D35D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLContents" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="823">
   <si>
     <t>List No.</t>
   </si>
@@ -2083,6 +2083,9 @@
     <t>恥辱（ちじょく）</t>
   </si>
   <si>
+    <t>No.13</t>
+  </si>
+  <si>
     <t>歯</t>
   </si>
   <si>
@@ -2096,22 +2099,404 @@
   </si>
   <si>
     <t>歯石（しせき）／歯痛（しつう）</t>
+  </si>
+  <si>
+    <t>叱</t>
+  </si>
+  <si>
+    <t>しかる</t>
+  </si>
+  <si>
+    <t>叱り／叱る</t>
+  </si>
+  <si>
+    <t>シツ</t>
+  </si>
+  <si>
+    <t>叱責（しっせき）</t>
+  </si>
+  <si>
+    <t>斥</t>
+  </si>
+  <si>
+    <t>セキ</t>
+  </si>
+  <si>
+    <t>排斥（はいせき）</t>
+  </si>
+  <si>
+    <t>赤</t>
+  </si>
+  <si>
+    <t>あか／あかい／あからむ／あからめる</t>
+  </si>
+  <si>
+    <t>赤字（あかじ）／赤の他人／赤い／赤らむ／赤らめる</t>
+  </si>
+  <si>
+    <t>赤外線（せきがいせん）</t>
+  </si>
+  <si>
+    <t>勅</t>
+  </si>
+  <si>
+    <t>勅語（ちょくご）</t>
+  </si>
+  <si>
+    <t>充</t>
+  </si>
+  <si>
+    <t>あてる</t>
+  </si>
+  <si>
+    <t>学費に充てる（がくひにあてる）</t>
+  </si>
+  <si>
+    <t>ジュウ</t>
+  </si>
+  <si>
+    <t>条件を充足（じょうけんをじゅうそく）</t>
+  </si>
+  <si>
+    <t>沖</t>
+  </si>
+  <si>
+    <t>おき</t>
+  </si>
+  <si>
+    <t>沖縄（おきなわ）／沖合い（おきあい）</t>
+  </si>
+  <si>
+    <t>チュウ</t>
+  </si>
+  <si>
+    <t>沖積平野（ちゅうせきへいや）</t>
+  </si>
+  <si>
+    <t>衝</t>
+  </si>
+  <si>
+    <t>つく</t>
+  </si>
+  <si>
+    <t>吹雪を衝いて進む（ふぶきをついてすすむ）</t>
+  </si>
+  <si>
+    <t>衝撃（しょうげき）／衝動（しょうどう）</t>
+  </si>
+  <si>
+    <t>憧</t>
+  </si>
+  <si>
+    <t>あこがれる</t>
+  </si>
+  <si>
+    <t>憧れ／憧れる</t>
+  </si>
+  <si>
+    <t>ドウ／ショウ</t>
+  </si>
+  <si>
+    <t>憧憬（どうけい／しょうけい）</t>
+  </si>
+  <si>
+    <t>虫</t>
+  </si>
+  <si>
+    <t>むし</t>
+  </si>
+  <si>
+    <t>本の虫／虫がいい／虫歯（むしば）／虫眼鏡（むしめがね）</t>
+  </si>
+  <si>
+    <t>害虫（がいちゅう）／昆虫（こんちゅう）</t>
+  </si>
+  <si>
+    <t>崇</t>
+  </si>
+  <si>
+    <t>あがめる</t>
+  </si>
+  <si>
+    <t>崇める</t>
+  </si>
+  <si>
+    <t>スウ</t>
+  </si>
+  <si>
+    <t>崇敬（すうけい）／崇拝（すうはい）</t>
+  </si>
+  <si>
+    <t>銃</t>
+  </si>
+  <si>
+    <t>銃器（じゅうき）／銃弾（じゅうだん）</t>
+  </si>
+  <si>
+    <t>抽</t>
+  </si>
+  <si>
+    <t>抽出（ちゅうしゅつ）／抽象（ちゅうしょう）</t>
+  </si>
+  <si>
+    <t>愁</t>
+  </si>
+  <si>
+    <t>うれい／うれえる</t>
+  </si>
+  <si>
+    <t>愁い／憂える</t>
+  </si>
+  <si>
+    <t>シュウ</t>
+  </si>
+  <si>
+    <t>愁傷（しゅうしょう）／愁眉（しゅうび）</t>
+  </si>
+  <si>
+    <t>酬</t>
+  </si>
+  <si>
+    <t>応酬（おうしゅう）／報酬（ほうしゅう）</t>
+  </si>
+  <si>
+    <t>No.14</t>
+  </si>
+  <si>
+    <t>醜</t>
+  </si>
+  <si>
+    <t>みにくい</t>
+  </si>
+  <si>
+    <t>醜い</t>
+  </si>
+  <si>
+    <t>醜聞（しゅうぶん）</t>
+  </si>
+  <si>
+    <t>臭</t>
+  </si>
+  <si>
+    <t>くさい</t>
+  </si>
+  <si>
+    <t>臭い／臭みのある人（くさみのあるひと）</t>
+  </si>
+  <si>
+    <t>臭気（しゅうき）／臭味（しゅうみ）</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>だす／でる</t>
+  </si>
+  <si>
+    <t>出す／出し合う（だしあう）／出る／出番（でばん）／出張る</t>
+  </si>
+  <si>
+    <t>シュツ／スイ</t>
+  </si>
+  <si>
+    <t>出荷（しゅっか）／出張（しゅっちょう）</t>
+  </si>
+  <si>
+    <t>初</t>
+  </si>
+  <si>
+    <t>うい／そめる／はじめ／はじめて／はつ</t>
+  </si>
+  <si>
+    <t>初陣（ういじん）／咲き初める（さきそめる）／初恋（はつこい）</t>
+  </si>
+  <si>
+    <t>ショ</t>
+  </si>
+  <si>
+    <t>初回（しょかい）／初老（しょろう）</t>
+  </si>
+  <si>
+    <t>除</t>
+  </si>
+  <si>
+    <t>のぞく</t>
+  </si>
+  <si>
+    <t>邪魔物を除く（じゃまものをのぞく）</t>
+  </si>
+  <si>
+    <t>ジ／ジョ</t>
+  </si>
+  <si>
+    <t>除外（じょがい）／除籍（じょせき）</t>
+  </si>
+  <si>
+    <t>処</t>
+  </si>
+  <si>
+    <t>ジョ</t>
+  </si>
+  <si>
+    <t>処遇（しょぐう）／処決（しょけつ）</t>
+  </si>
+  <si>
+    <t>礎</t>
+  </si>
+  <si>
+    <t>いしずえ</t>
+  </si>
+  <si>
+    <t>礎（いしずえ）</t>
+  </si>
+  <si>
+    <t>ソ</t>
+  </si>
+  <si>
+    <t>礎石（そせき）／基礎（きそ）</t>
+  </si>
+  <si>
+    <t>畜</t>
+  </si>
+  <si>
+    <t>チク</t>
+  </si>
+  <si>
+    <t>畜産（ちくさん）／畜類（ちくるい）</t>
+  </si>
+  <si>
+    <t>触</t>
+  </si>
+  <si>
+    <t>さわる／ふれる</t>
+  </si>
+  <si>
+    <t>指で触る（ゆびでさわる）／触れる／法に触れる（ほうにふれる）</t>
+  </si>
+  <si>
+    <t>ショク</t>
+  </si>
+  <si>
+    <t>触媒（しょくばい）／触発（しょくはつ）</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>川岸（かわぎし）／川瀬（かわせ）</t>
+  </si>
+  <si>
+    <t>セン</t>
+  </si>
+  <si>
+    <t>河川（かせん）／山川（やまかわ）</t>
+  </si>
+  <si>
+    <t>伝</t>
+  </si>
+  <si>
+    <t>つたう／つたえる／つたわる</t>
+  </si>
+  <si>
+    <t>伝う／伝える／伝わる</t>
+  </si>
+  <si>
+    <t>デン</t>
+  </si>
+  <si>
+    <t>伝記（でんき）／伝染（でんせん）</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>ふな／ふね</t>
+  </si>
+  <si>
+    <t>船路（ふなじ）／船酔い（ふなよい）／船（ふね）</t>
+  </si>
+  <si>
+    <t>船員（船員）／貨物船（かもつせん）</t>
+  </si>
+  <si>
+    <t>串</t>
+  </si>
+  <si>
+    <t>くし</t>
+  </si>
+  <si>
+    <t>串焼き（くしやき）／玉串（たまぐし）</t>
+  </si>
+  <si>
+    <t>窓</t>
+  </si>
+  <si>
+    <t>まど</t>
+  </si>
+  <si>
+    <t>窓口（まどぐち）／窓枠（まだわく）</t>
+  </si>
+  <si>
+    <t>窓外（そうがい）</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>とこ／ゆか</t>
+  </si>
+  <si>
+    <t>床に就く（とこにつく）／床屋（とこや）／床面積（ゆかめんせき）</t>
+  </si>
+  <si>
+    <t>温床（おんしょう）／河床（かしょう）</t>
+  </si>
+  <si>
+    <t>No.15</t>
+  </si>
+  <si>
+    <t>創</t>
+  </si>
+  <si>
+    <t>創案（そうあん）／創始（そうし）</t>
+  </si>
+  <si>
+    <t>吹</t>
+  </si>
+  <si>
+    <t>ふく</t>
+  </si>
+  <si>
+    <t>吹き荒れる（ふきあれる）／吹き替え（ふきかえ）</t>
+  </si>
+  <si>
+    <t>スイ</t>
+  </si>
+  <si>
+    <t>吹管（すいかん）／鼓吹（こすい）</t>
+  </si>
+  <si>
+    <t>炊</t>
+  </si>
+  <si>
+    <t>たく</t>
+  </si>
+  <si>
+    <t>ご飯を炊く</t>
+  </si>
+  <si>
+    <t>炊煙（すいえん）／炊飯器（すいはんき）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2139,10 +2524,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2445,20 +2828,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -5917,7 +6300,7 @@
       <c r="E173" t="s">
         <v>556</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F173" t="s">
         <v>656</v>
       </c>
     </row>
@@ -5937,7 +6320,7 @@
       <c r="E174" t="s">
         <v>556</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="F174" t="s">
         <v>660</v>
       </c>
     </row>
@@ -5957,7 +6340,7 @@
       <c r="E175" t="s">
         <v>662</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="F175" t="s">
         <v>663</v>
       </c>
     </row>
@@ -5977,7 +6360,7 @@
       <c r="E176" t="s">
         <v>665</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="F176" t="s">
         <v>666</v>
       </c>
     </row>
@@ -5988,7 +6371,7 @@
       <c r="B177" t="s">
         <v>667</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" t="s">
         <v>668</v>
       </c>
       <c r="D177" t="s">
@@ -5997,7 +6380,7 @@
       <c r="E177" t="s">
         <v>662</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F177" t="s">
         <v>670</v>
       </c>
     </row>
@@ -6017,7 +6400,7 @@
       <c r="E178" t="s">
         <v>674</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F178" t="s">
         <v>675</v>
       </c>
     </row>
@@ -6037,7 +6420,7 @@
       <c r="E179" t="s">
         <v>662</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="F179" t="s">
         <v>679</v>
       </c>
     </row>
@@ -6057,7 +6440,7 @@
       <c r="E180" t="s">
         <v>681</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="F180" t="s">
         <v>682</v>
       </c>
     </row>
@@ -6077,35 +6460,671 @@
       <c r="E181" t="s">
         <v>662</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="F181" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>628</v>
-      </c>
-      <c r="B182" s="2" t="s">
         <v>687</v>
       </c>
+      <c r="B182" t="s">
+        <v>688</v>
+      </c>
       <c r="C182" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D182" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E182" t="s">
-        <v>690</v>
-      </c>
-      <c r="F182" s="2" t="s">
         <v>691</v>
       </c>
+      <c r="F182" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>687</v>
+      </c>
+      <c r="B183" t="s">
+        <v>693</v>
+      </c>
+      <c r="C183" t="s">
+        <v>694</v>
+      </c>
+      <c r="D183" t="s">
+        <v>695</v>
+      </c>
+      <c r="E183" t="s">
+        <v>696</v>
+      </c>
+      <c r="F183" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>687</v>
+      </c>
+      <c r="B184" t="s">
+        <v>698</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" t="s">
+        <v>699</v>
+      </c>
+      <c r="F184" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>687</v>
+      </c>
+      <c r="B185" t="s">
+        <v>701</v>
+      </c>
+      <c r="C185" t="s">
+        <v>702</v>
+      </c>
+      <c r="D185" t="s">
+        <v>703</v>
+      </c>
+      <c r="E185" t="s">
+        <v>699</v>
+      </c>
+      <c r="F185" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>687</v>
+      </c>
+      <c r="B186" t="s">
+        <v>705</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" t="s">
+        <v>427</v>
+      </c>
+      <c r="F186" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>687</v>
+      </c>
+      <c r="B187" t="s">
+        <v>707</v>
+      </c>
+      <c r="C187" t="s">
+        <v>708</v>
+      </c>
+      <c r="D187" t="s">
+        <v>709</v>
+      </c>
+      <c r="E187" t="s">
+        <v>710</v>
+      </c>
+      <c r="F187" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>687</v>
+      </c>
+      <c r="B188" t="s">
+        <v>712</v>
+      </c>
+      <c r="C188" t="s">
+        <v>713</v>
+      </c>
+      <c r="D188" t="s">
+        <v>714</v>
+      </c>
+      <c r="E188" t="s">
+        <v>715</v>
+      </c>
+      <c r="F188" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>687</v>
+      </c>
+      <c r="B189" t="s">
+        <v>717</v>
+      </c>
+      <c r="C189" t="s">
+        <v>718</v>
+      </c>
+      <c r="D189" t="s">
+        <v>719</v>
+      </c>
+      <c r="E189" t="s">
+        <v>568</v>
+      </c>
+      <c r="F189" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>687</v>
+      </c>
+      <c r="B190" t="s">
+        <v>721</v>
+      </c>
+      <c r="C190" t="s">
+        <v>722</v>
+      </c>
+      <c r="D190" t="s">
+        <v>723</v>
+      </c>
+      <c r="E190" t="s">
+        <v>724</v>
+      </c>
+      <c r="F190" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>687</v>
+      </c>
+      <c r="B191" t="s">
+        <v>726</v>
+      </c>
+      <c r="C191" t="s">
+        <v>727</v>
+      </c>
+      <c r="D191" t="s">
+        <v>728</v>
+      </c>
+      <c r="E191" t="s">
+        <v>715</v>
+      </c>
+      <c r="F191" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C192" s="1"/>
+      <c r="A192" t="s">
+        <v>687</v>
+      </c>
+      <c r="B192" t="s">
+        <v>730</v>
+      </c>
+      <c r="C192" t="s">
+        <v>731</v>
+      </c>
+      <c r="D192" t="s">
+        <v>732</v>
+      </c>
+      <c r="E192" t="s">
+        <v>733</v>
+      </c>
+      <c r="F192" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>687</v>
+      </c>
+      <c r="B193" t="s">
+        <v>735</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>710</v>
+      </c>
+      <c r="F193" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>687</v>
+      </c>
+      <c r="B194" t="s">
+        <v>737</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" t="s">
+        <v>715</v>
+      </c>
+      <c r="F194" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>687</v>
+      </c>
+      <c r="B195" t="s">
+        <v>739</v>
+      </c>
+      <c r="C195" t="s">
+        <v>740</v>
+      </c>
+      <c r="D195" t="s">
+        <v>741</v>
+      </c>
+      <c r="E195" t="s">
+        <v>742</v>
+      </c>
+      <c r="F195" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>687</v>
+      </c>
+      <c r="B196" t="s">
+        <v>744</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>742</v>
+      </c>
+      <c r="F196" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>746</v>
+      </c>
+      <c r="B197" t="s">
+        <v>747</v>
+      </c>
+      <c r="C197" t="s">
+        <v>748</v>
+      </c>
+      <c r="D197" t="s">
+        <v>749</v>
+      </c>
+      <c r="E197" t="s">
+        <v>742</v>
+      </c>
+      <c r="F197" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>746</v>
+      </c>
+      <c r="B198" t="s">
+        <v>751</v>
+      </c>
+      <c r="C198" t="s">
+        <v>752</v>
+      </c>
+      <c r="D198" t="s">
+        <v>753</v>
+      </c>
+      <c r="E198" t="s">
+        <v>742</v>
+      </c>
+      <c r="F198" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>746</v>
+      </c>
+      <c r="B199" t="s">
+        <v>755</v>
+      </c>
+      <c r="C199" t="s">
+        <v>756</v>
+      </c>
+      <c r="D199" t="s">
+        <v>757</v>
+      </c>
+      <c r="E199" t="s">
+        <v>758</v>
+      </c>
+      <c r="F199" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>746</v>
+      </c>
+      <c r="B200" t="s">
+        <v>760</v>
+      </c>
+      <c r="C200" t="s">
+        <v>761</v>
+      </c>
+      <c r="D200" t="s">
+        <v>762</v>
+      </c>
+      <c r="E200" t="s">
+        <v>763</v>
+      </c>
+      <c r="F200" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>746</v>
+      </c>
+      <c r="B201" t="s">
+        <v>765</v>
+      </c>
+      <c r="C201" t="s">
+        <v>766</v>
+      </c>
+      <c r="D201" t="s">
+        <v>767</v>
+      </c>
+      <c r="E201" t="s">
+        <v>768</v>
+      </c>
+      <c r="F201" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>746</v>
+      </c>
+      <c r="B202" t="s">
+        <v>770</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>771</v>
+      </c>
+      <c r="F202" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>746</v>
+      </c>
+      <c r="B203" t="s">
+        <v>773</v>
+      </c>
+      <c r="C203" t="s">
+        <v>774</v>
+      </c>
+      <c r="D203" t="s">
+        <v>775</v>
+      </c>
+      <c r="E203" t="s">
+        <v>776</v>
+      </c>
+      <c r="F203" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>746</v>
+      </c>
+      <c r="B204" t="s">
+        <v>778</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" t="s">
+        <v>779</v>
+      </c>
+      <c r="F204" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>746</v>
+      </c>
+      <c r="B205" t="s">
+        <v>781</v>
+      </c>
+      <c r="C205" t="s">
+        <v>782</v>
+      </c>
+      <c r="D205" t="s">
+        <v>783</v>
+      </c>
+      <c r="E205" t="s">
+        <v>784</v>
+      </c>
+      <c r="F205" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>746</v>
+      </c>
+      <c r="B206" t="s">
+        <v>786</v>
+      </c>
+      <c r="C206" t="s">
+        <v>787</v>
+      </c>
+      <c r="D206" t="s">
+        <v>788</v>
+      </c>
+      <c r="E206" t="s">
+        <v>789</v>
+      </c>
+      <c r="F206" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>746</v>
+      </c>
+      <c r="B207" t="s">
+        <v>791</v>
+      </c>
+      <c r="C207" t="s">
+        <v>792</v>
+      </c>
+      <c r="D207" t="s">
+        <v>793</v>
+      </c>
+      <c r="E207" t="s">
+        <v>794</v>
+      </c>
+      <c r="F207" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>746</v>
+      </c>
+      <c r="B208" t="s">
+        <v>796</v>
+      </c>
+      <c r="C208" t="s">
+        <v>797</v>
+      </c>
+      <c r="D208" t="s">
+        <v>798</v>
+      </c>
+      <c r="E208" t="s">
+        <v>789</v>
+      </c>
+      <c r="F208" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>746</v>
+      </c>
+      <c r="B209" t="s">
+        <v>800</v>
+      </c>
+      <c r="C209" t="s">
+        <v>801</v>
+      </c>
+      <c r="D209" t="s">
+        <v>802</v>
+      </c>
+      <c r="E209" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>746</v>
+      </c>
+      <c r="B210" t="s">
+        <v>803</v>
+      </c>
+      <c r="C210" t="s">
+        <v>804</v>
+      </c>
+      <c r="D210" t="s">
+        <v>805</v>
+      </c>
+      <c r="E210" t="s">
+        <v>487</v>
+      </c>
+      <c r="F210" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>746</v>
+      </c>
+      <c r="B211" t="s">
+        <v>807</v>
+      </c>
+      <c r="C211" t="s">
+        <v>808</v>
+      </c>
+      <c r="D211" t="s">
+        <v>809</v>
+      </c>
+      <c r="E211" t="s">
+        <v>568</v>
+      </c>
+      <c r="F211" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>811</v>
+      </c>
+      <c r="B212" t="s">
+        <v>812</v>
+      </c>
+      <c r="C212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>487</v>
+      </c>
+      <c r="F212" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>811</v>
+      </c>
+      <c r="B213" t="s">
+        <v>814</v>
+      </c>
+      <c r="C213" t="s">
+        <v>815</v>
+      </c>
+      <c r="D213" t="s">
+        <v>816</v>
+      </c>
+      <c r="E213" t="s">
+        <v>817</v>
+      </c>
+      <c r="F213" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>811</v>
+      </c>
+      <c r="B214" t="s">
+        <v>819</v>
+      </c>
+      <c r="C214" t="s">
+        <v>820</v>
+      </c>
+      <c r="D214" t="s">
+        <v>821</v>
+      </c>
+      <c r="E214" t="s">
+        <v>817</v>
+      </c>
+      <c r="F214" t="s">
+        <v>822</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>